--- a/Data_Hasil_Ekspor.xlsx
+++ b/Data_Hasil_Ekspor.xlsx
@@ -11,6 +11,35 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Tanggal</t>
+  </si>
+  <si>
+    <t>NPM/NRP</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Tanngal Lahir</t>
+  </si>
+  <si>
+    <t>Golongan</t>
+  </si>
+  <si>
+    <t>Diagnosa</t>
+  </si>
+  <si>
+    <t>Perawatan Gigi</t>
+  </si>
+  <si>
+    <t>Pengobatan Gigi</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,12 +369,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>